--- a/data/trans_bre/iP22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 6,83</t>
+          <t>-11,37; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 2,37</t>
+          <t>-19,16; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 15,89</t>
+          <t>-3,79; 16,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 11,56</t>
+          <t>-16,93; 11,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 61,7</t>
+          <t>-54,36; 51,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 10,43</t>
+          <t>-51,52; 8,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 215,35</t>
+          <t>-26,67; 230,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,91; 102,44</t>
+          <t>-70,94; 114,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,93</t>
+          <t>-5,01; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,37</t>
+          <t>-9,28; 0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,09</t>
+          <t>-3,45; 4,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,25</t>
+          <t>-4,32; 3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 20,34</t>
+          <t>-21,3; 18,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -1,18</t>
+          <t>-30,54; 0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 29,11</t>
+          <t>-18,6; 31,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 27,6</t>
+          <t>-27,62; 28,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 0,56</t>
+          <t>-13,26; 0,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 8,52</t>
+          <t>-7,13; 8,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,83</t>
+          <t>-5,28; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 9,91</t>
+          <t>-5,05; 9,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 3,83</t>
+          <t>-45,61; 2,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 41,03</t>
+          <t>-24,99; 42,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 50,32</t>
+          <t>-25,81; 51,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 78,02</t>
+          <t>-25,56; 70,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,14</t>
+          <t>-6,12; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,03</t>
+          <t>-7,62; 0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,08</t>
+          <t>-2,09; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,49</t>
+          <t>-3,36; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 5,78</t>
+          <t>-25,85; 4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,32</t>
+          <t>-26,02; 0,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 27,52</t>
+          <t>-11,43; 26,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 26,72</t>
+          <t>-20,85; 26,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 6,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,44; 1,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 17,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 26,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,82; 55,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,3; 6,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,18; 252,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,73; 269,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,3%</t>
+          <t>-16,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>-3,27%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 5,94</t>
+          <t>-5,31; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 1,9</t>
+          <t>-9,42; 0,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 16,34</t>
+          <t>-3,98; 3,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 11,62</t>
+          <t>-5,02; 3,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 51,68</t>
+          <t>-22,34; 17,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 8,47</t>
+          <t>-30,51; 0,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 230,29</t>
+          <t>-20,89; 24,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 114,41</t>
+          <t>-30,3; 29,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>-25,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,84%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,68</t>
+          <t>-13,93; 0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,06</t>
+          <t>-7,76; 8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,59</t>
+          <t>-5,48; 7,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,58</t>
+          <t>-5,35; 9,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 18,53</t>
+          <t>-47,29; 5,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 0,23</t>
+          <t>-26,87; 38,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 31,42</t>
+          <t>-25,01; 50,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 28,81</t>
+          <t>-25,9; 69,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,98%</t>
+          <t>-11,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 0,48</t>
+          <t>-5,66; 1,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 8,31</t>
+          <t>-7,79; -0,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,67</t>
+          <t>-2,54; 3,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 9,44</t>
+          <t>-3,62; 3,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 2,82</t>
+          <t>-24,38; 5,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 42,14</t>
+          <t>-25,95; 0,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 51,08</t>
+          <t>-13,56; 25,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 70,05</t>
+          <t>-21,35; 27,38</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,95</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-14,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 0,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 0,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 4,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,47</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-25,85; 4,69</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,02; 0,35</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 26,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 26,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
